--- a/奈尔克与传说的炼金术士们 金手指 by露易娘.xlsx
+++ b/奈尔克与传说的炼金术士们 金手指 by露易娘.xlsx
@@ -4,18 +4,17 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18570" windowHeight="18195" activeTab="1"/>
+    <workbookView windowWidth="18570" windowHeight="18195"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48">
   <si>
     <r>
       <t xml:space="preserve">Switch ネルケと伝説の錬金術士たち ～新たな大地のアトリエ～
@@ -61,18 +60,7 @@
     <t>640F0000 00000000 000F423F</t>
   </si>
   <si>
-    <r>
-      <t>人</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>口</t>
-    </r>
+    <t>人口</t>
   </si>
   <si>
     <t>[main+11a3ab8] + 4300</t>
@@ -96,27 +84,7 @@
     <t>780F0000 000005E8</t>
   </si>
   <si>
-    <r>
-      <t>建筑次数（0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>为</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <charset val="134"/>
-      </rPr>
-      <t>最大）</t>
-    </r>
+    <t>建筑次数（0为最大）</t>
   </si>
   <si>
     <t>[main+11a8f88] + 5e4</t>
@@ -125,81 +93,7 @@
     <t>780F0000 000005E4</t>
   </si>
   <si>
-    <r>
-      <t>建筑所</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>显</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <charset val="134"/>
-      </rPr>
-      <t>示金</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>钱</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>为</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <charset val="134"/>
-      </rPr>
-      <t>不扣</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>钱</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
+    <t>建筑所显示金钱（0为不扣钱）</t>
   </si>
   <si>
     <t>[main+11a8f88] + 5e0</t>
@@ -208,163 +102,76 @@
     <t>780F0000 000005E0</t>
   </si>
   <si>
-    <t>ネルケHP上限 6CC1FAB0B4</t>
-  </si>
-  <si>
-    <t>[main+1706300] + 94524</t>
-  </si>
-  <si>
-    <t>[main+1703998] + 8d654</t>
-  </si>
-  <si>
-    <t>[main+16e0da0] + 8a674</t>
-  </si>
-  <si>
-    <t>ネルケHP 0FA78C63A8</t>
-  </si>
-  <si>
-    <t>[main+11ac598] + 50848</t>
-  </si>
-  <si>
-    <t>[main+11ac590] + d0748</t>
-  </si>
-  <si>
-    <t>[main+11ac5c0] + 1bc18</t>
-  </si>
-  <si>
-    <t>[main+11ac588] + d0b28</t>
-  </si>
-  <si>
-    <t>[main+11ac5b8] + 1bc78</t>
-  </si>
-  <si>
-    <t>[main+11ac580] + 1ba88</t>
-  </si>
-  <si>
-    <t>[main+11ac5a8] + 1bd58</t>
-  </si>
-  <si>
-    <t>[main+11ac5b0] + 1bce8</t>
-  </si>
-  <si>
-    <t>ネルケ绿点上限 5B21703DD8</t>
-  </si>
-  <si>
-    <t>[main+1706300] + 9452c</t>
-  </si>
-  <si>
-    <t>[main+16e0da0] + 8a67c</t>
-  </si>
-  <si>
-    <t>[main+1703998] + 8d65c</t>
-  </si>
-  <si>
-    <t>ネルケ绿点 6CC1FAB0C0</t>
-  </si>
-  <si>
-    <t>[main+1703998] + 8d660</t>
-  </si>
-  <si>
-    <t>[main+1706300] + 94530</t>
-  </si>
-  <si>
-    <t>[main+16e0da0] + 8a680</t>
-  </si>
-  <si>
-    <t>ミスティHP上限 6CC1FAB174</t>
-  </si>
-  <si>
-    <t>[main+16e0da0] + 8a734</t>
-  </si>
-  <si>
-    <t>[main+1703998] + 8d714</t>
-  </si>
-  <si>
-    <t>[main+1706300] + 945e4</t>
-  </si>
-  <si>
-    <t>ミスティHP 6CC1FAB178</t>
-  </si>
-  <si>
-    <t>[main+1703998] + 8d718</t>
-  </si>
-  <si>
-    <t>[main+1706300] + 945e8</t>
-  </si>
-  <si>
-    <t>[main+16e0da0] + 8a738</t>
-  </si>
-  <si>
-    <t>ミスティ绿点上限 6CC1FAB17C</t>
-  </si>
-  <si>
-    <t>[main+16e0da0] + 8a73c</t>
-  </si>
-  <si>
-    <t>[main+1703998] + 8d71c</t>
-  </si>
-  <si>
-    <t>[main+1706300] + 945ec</t>
-  </si>
-  <si>
-    <t>ミスティ绿点 6CC1FAB180</t>
-  </si>
-  <si>
-    <t>[main+16e0da0] + 8a740</t>
-  </si>
-  <si>
-    <t>[main+1703998] + 8d720</t>
-  </si>
-  <si>
-    <t>[main+1706300] + 945f0</t>
-  </si>
-  <si>
-    <t>クノスHP上限 6CC1FAB234</t>
-  </si>
-  <si>
-    <t>[main+16e0da0] + 8a7f4</t>
-  </si>
-  <si>
-    <t>[main+1703998] + 8d7d4</t>
-  </si>
-  <si>
-    <t>[main+1706300] + 946a4</t>
-  </si>
-  <si>
-    <t>クノスHP 6CC1FAB238</t>
-  </si>
-  <si>
-    <t>[main+16e0da0] + 8a7f8</t>
-  </si>
-  <si>
-    <t>[main+1703998] + 8d7d8</t>
-  </si>
-  <si>
-    <t>[main+1706300] + 946a8</t>
-  </si>
-  <si>
-    <t>クノス绿点上限 6CC1FAB23C</t>
-  </si>
-  <si>
-    <t>[main+1706300] + 946ac</t>
-  </si>
-  <si>
-    <t>[main+16e0da0] + 8a7fc</t>
-  </si>
-  <si>
-    <t>[main+1703998] + 8d7dc</t>
-  </si>
-  <si>
-    <t>クノス绿点 6CC1FAB240</t>
-  </si>
-  <si>
-    <t>[main+16e0da0] + 8a800</t>
-  </si>
-  <si>
-    <t>[main+1706300] + 946b0</t>
-  </si>
-  <si>
-    <t>[main+1703998] + 8d7e0</t>
+    <t>ネルケHP上限</t>
+  </si>
+  <si>
+    <t>6CC1FAB0B4</t>
+  </si>
+  <si>
+    <t>ネルケHP</t>
+  </si>
+  <si>
+    <t>0FA78C63A8</t>
+  </si>
+  <si>
+    <t>ネルケ绿点上限</t>
+  </si>
+  <si>
+    <t>5B21703DD8</t>
+  </si>
+  <si>
+    <t>ネルケ绿点</t>
+  </si>
+  <si>
+    <t>6CC1FAB0C0</t>
+  </si>
+  <si>
+    <t>ミスティHP上限</t>
+  </si>
+  <si>
+    <t>6CC1FAB174</t>
+  </si>
+  <si>
+    <t>ミスティHP</t>
+  </si>
+  <si>
+    <t>6CC1FAB178</t>
+  </si>
+  <si>
+    <t>ミスティ绿点上限</t>
+  </si>
+  <si>
+    <t>6CC1FAB17C</t>
+  </si>
+  <si>
+    <t>ミスティ绿点</t>
+  </si>
+  <si>
+    <t>6CC1FAB180</t>
+  </si>
+  <si>
+    <t>クノスHP上限</t>
+  </si>
+  <si>
+    <t>6CC1FAB234</t>
+  </si>
+  <si>
+    <t>クノスHP</t>
+  </si>
+  <si>
+    <t>6CC1FAB238</t>
+  </si>
+  <si>
+    <t>クノス绿点上限</t>
+  </si>
+  <si>
+    <t>6CC1FAB23C</t>
+  </si>
+  <si>
+    <t>クノス绿点</t>
+  </si>
+  <si>
+    <t>6CC1FAB240</t>
   </si>
 </sst>
 </file>
@@ -372,12 +179,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -398,23 +205,10 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -866,152 +660,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1022,12 +816,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1378,15 +1166,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D79"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D26" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="30.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="23.75" style="1" customWidth="1"/>
     <col min="3" max="3" width="29.375" style="1" customWidth="1"/>
     <col min="4" max="4" width="60.375" style="1" customWidth="1"/>
@@ -1408,7 +1196,7 @@
       <c r="D4" s="3"/>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1429,7 +1217,7 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -1450,7 +1238,7 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1471,7 +1259,7 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -1481,8 +1269,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="4"/>
+    <row r="15" spans="3:3">
       <c r="C15" s="1" t="s">
         <v>17</v>
       </c>
@@ -1493,10 +1280,10 @@
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -1514,10 +1301,10 @@
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -1534,269 +1321,100 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="4" t="s">
+    <row r="26" spans="1:2">
+      <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="4" t="s">
+      <c r="B26" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="4" t="s">
+    <row r="27" spans="1:2">
+      <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="4" t="s">
+      <c r="B27" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="4" t="s">
+    <row r="28" spans="1:2">
+      <c r="A28" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="4" t="s">
+      <c r="B28" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="4" t="s">
+    <row r="29" spans="1:2">
+      <c r="A29" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="4" t="s">
+      <c r="B29" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="4" t="s">
+    <row r="30" spans="1:2">
+      <c r="A30" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="4" t="s">
+      <c r="B30" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="4" t="s">
+    <row r="31" spans="1:2">
+      <c r="A31" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="4" t="s">
+      <c r="B31" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="4" t="s">
+    <row r="32" spans="1:2">
+      <c r="A32" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="4" t="s">
+      <c r="B32" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
-      <c r="A41" s="4" t="s">
+    <row r="33" spans="1:2">
+      <c r="A33" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" s="4" t="s">
+      <c r="B33" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
-      <c r="A43" s="4" t="s">
+    <row r="34" spans="1:2">
+      <c r="A34" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44" s="4" t="s">
+      <c r="B34" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
-      <c r="A45" s="4" t="s">
+    <row r="35" spans="1:2">
+      <c r="A35" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46" s="4" t="s">
+      <c r="B35" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
-      <c r="A47" s="4" t="s">
+    <row r="36" spans="1:2">
+      <c r="A36" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48" s="4" t="s">
+      <c r="B36" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
-      <c r="A49" s="4" t="s">
+    <row r="37" spans="1:2">
+      <c r="A37" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50" s="4" t="s">
+      <c r="B37" s="1" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1">
-      <c r="A53" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1">
-      <c r="A54" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1">
-      <c r="A55" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1">
-      <c r="A56" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1">
-      <c r="A57" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1">
-      <c r="A58" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1">
-      <c r="A59" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1">
-      <c r="A60" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1">
-      <c r="A61" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1">
-      <c r="A62" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1">
-      <c r="A63" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1">
-      <c r="A64" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1">
-      <c r="A65" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1">
-      <c r="A66" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1">
-      <c r="A67" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1">
-      <c r="A68" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1">
-      <c r="A69" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1">
-      <c r="A70" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1">
-      <c r="A71" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1">
-      <c r="A72" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1">
-      <c r="A73" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1">
-      <c r="A74" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1">
-      <c r="A75" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1">
-      <c r="A76" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1">
-      <c r="A77" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1">
-      <c r="A78" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1">
-      <c r="A79" s="4" t="s">
-        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1807,21 +1425,4 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
 </file>